--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.20310720508642</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N2">
-        <v>2.20310720508642</v>
+        <v>1.556296</v>
       </c>
       <c r="O2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q2">
-        <v>428.8226414296328</v>
+        <v>101.3851047197146</v>
       </c>
       <c r="R2">
-        <v>428.8226414296328</v>
+        <v>912.4659424774319</v>
       </c>
       <c r="S2">
-        <v>0.2860220143283705</v>
+        <v>0.05017649632681041</v>
       </c>
       <c r="T2">
-        <v>0.2860220143283705</v>
+        <v>0.0501764963268104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.123689488153447</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>0.123689488153447</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q3">
-        <v>24.07547526719646</v>
+        <v>436.5994669146464</v>
       </c>
       <c r="R3">
-        <v>24.07547526719646</v>
+        <v>3929.395202231817</v>
       </c>
       <c r="S3">
-        <v>0.01605819111807874</v>
+        <v>0.2160774169784947</v>
       </c>
       <c r="T3">
-        <v>0.01605819111807874</v>
+        <v>0.2160774169784947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0705825375280405</v>
+        <v>0.134921</v>
       </c>
       <c r="N4">
-        <v>0.0705825375280405</v>
+        <v>0.404763</v>
       </c>
       <c r="O4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q4">
-        <v>13.73850083722695</v>
+        <v>26.36833811926899</v>
       </c>
       <c r="R4">
-        <v>13.73850083722695</v>
+        <v>237.315043073421</v>
       </c>
       <c r="S4">
-        <v>0.009163493956884426</v>
+        <v>0.01304995269712751</v>
       </c>
       <c r="T4">
-        <v>0.009163493956884426</v>
+        <v>0.01304995269712751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.20310720508642</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N5">
-        <v>2.20310720508642</v>
+        <v>0.434273</v>
       </c>
       <c r="O5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q5">
-        <v>175.735990790427</v>
+        <v>28.29077089573233</v>
       </c>
       <c r="R5">
-        <v>175.735990790427</v>
+        <v>254.616938061591</v>
       </c>
       <c r="S5">
-        <v>0.1172148044895572</v>
+        <v>0.01400138379160066</v>
       </c>
       <c r="T5">
-        <v>0.1172148044895572</v>
+        <v>0.01400138379160066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.123689488153447</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N6">
-        <v>0.123689488153447</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q6">
-        <v>9.866380855558113</v>
+        <v>32.87249301031866</v>
       </c>
       <c r="R6">
-        <v>9.866380855558113</v>
+        <v>295.852437092868</v>
       </c>
       <c r="S6">
-        <v>0.006580814196352727</v>
+        <v>0.01626892361896056</v>
       </c>
       <c r="T6">
-        <v>0.006580814196352727</v>
+        <v>0.01626892361896056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.0705825375280405</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N7">
-        <v>0.0705825375280405</v>
+        <v>1.556296</v>
       </c>
       <c r="O7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q7">
-        <v>5.630180926445718</v>
+        <v>41.41161133870755</v>
       </c>
       <c r="R7">
-        <v>5.630180926445718</v>
+        <v>372.7045020483679</v>
       </c>
       <c r="S7">
-        <v>0.003755295392627781</v>
+        <v>0.0204950181781477</v>
       </c>
       <c r="T7">
-        <v>0.003755295392627781</v>
+        <v>0.02049501817814769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.20310720508642</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>2.20310720508642</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q8">
-        <v>357.3857689895773</v>
+        <v>178.3327786122065</v>
       </c>
       <c r="R8">
-        <v>357.3857689895773</v>
+        <v>1604.995007509858</v>
       </c>
       <c r="S8">
-        <v>0.2383740681180107</v>
+        <v>0.08825866517298456</v>
       </c>
       <c r="T8">
-        <v>0.2383740681180107</v>
+        <v>0.08825866517298453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.123689488153447</v>
+        <v>0.134921</v>
       </c>
       <c r="N9">
-        <v>0.123689488153447</v>
+        <v>0.404763</v>
       </c>
       <c r="O9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q9">
-        <v>20.06478065960157</v>
+        <v>10.77037275703933</v>
       </c>
       <c r="R9">
-        <v>20.06478065960157</v>
+        <v>96.93335481335399</v>
       </c>
       <c r="S9">
-        <v>0.01338308295052537</v>
+        <v>0.005330364559724883</v>
       </c>
       <c r="T9">
-        <v>0.01338308295052537</v>
+        <v>0.005330364559724883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0705825375280405</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N10">
-        <v>0.0705825375280405</v>
+        <v>0.434273</v>
       </c>
       <c r="O10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q10">
-        <v>11.44982613349719</v>
+        <v>11.55560683243711</v>
       </c>
       <c r="R10">
-        <v>11.44982613349719</v>
+        <v>104.000461491934</v>
       </c>
       <c r="S10">
-        <v>0.007636962273014395</v>
+        <v>0.005718984710671194</v>
       </c>
       <c r="T10">
-        <v>0.007636962273014395</v>
+        <v>0.005718984710671193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.20310720508642</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N11">
-        <v>2.20310720508642</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O11">
-        <v>0.9189648332695114</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P11">
-        <v>0.9189648332695114</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q11">
-        <v>349.484153637955</v>
+        <v>13.42705033487022</v>
       </c>
       <c r="R11">
-        <v>349.484153637955</v>
+        <v>120.843453013832</v>
       </c>
       <c r="S11">
-        <v>0.2331037401992601</v>
+        <v>0.006645180706476172</v>
       </c>
       <c r="T11">
-        <v>0.2331037401992601</v>
+        <v>0.006645180706476172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.123689488153447</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N12">
-        <v>0.123689488153447</v>
+        <v>1.556296</v>
       </c>
       <c r="O12">
-        <v>0.05159362630910416</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P12">
-        <v>0.05159362630910416</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q12">
-        <v>19.62115868960795</v>
+        <v>84.30541426000087</v>
       </c>
       <c r="R12">
-        <v>19.62115868960795</v>
+        <v>758.7487283400079</v>
       </c>
       <c r="S12">
-        <v>0.01308718987679475</v>
+        <v>0.04172358770690895</v>
       </c>
       <c r="T12">
-        <v>0.01308718987679475</v>
+        <v>0.04172358770690895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0705825375280405</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>0.0705825375280405</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.02944154042138428</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P13">
-        <v>0.02944154042138428</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q13">
-        <v>11.19667637265015</v>
+        <v>363.0483888702581</v>
       </c>
       <c r="R13">
-        <v>11.19667637265015</v>
+        <v>3267.435499832323</v>
       </c>
       <c r="S13">
-        <v>0.007468112969062478</v>
+        <v>0.1796762571875185</v>
       </c>
       <c r="T13">
-        <v>0.007468112969062478</v>
+        <v>0.1796762571875185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.1132697218668</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H14">
-        <v>30.1132697218668</v>
+        <v>487.534973</v>
       </c>
       <c r="I14">
-        <v>0.04815223013146062</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J14">
-        <v>0.04815223013146062</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.20310720508642</v>
+        <v>0.134921</v>
       </c>
       <c r="N14">
-        <v>2.20310720508642</v>
+        <v>0.404763</v>
       </c>
       <c r="O14">
-        <v>0.9189648332695114</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P14">
-        <v>0.9189648332695114</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q14">
-        <v>66.34276149295547</v>
+        <v>21.92623536404433</v>
       </c>
       <c r="R14">
-        <v>66.34276149295547</v>
+        <v>197.336118276399</v>
       </c>
       <c r="S14">
-        <v>0.04425020613431285</v>
+        <v>0.01085151187885311</v>
       </c>
       <c r="T14">
-        <v>0.04425020613431285</v>
+        <v>0.01085151187885312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.1132697218668</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H15">
-        <v>30.1132697218668</v>
+        <v>487.534973</v>
       </c>
       <c r="I15">
-        <v>0.04815223013146062</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J15">
-        <v>0.04815223013146062</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.123689488153447</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N15">
-        <v>0.123689488153447</v>
+        <v>0.434273</v>
       </c>
       <c r="O15">
-        <v>0.05159362630910416</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P15">
-        <v>0.05159362630910416</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q15">
-        <v>3.724694918524398</v>
+        <v>23.52480836995878</v>
       </c>
       <c r="R15">
-        <v>3.724694918524398</v>
+        <v>211.723275329629</v>
       </c>
       <c r="S15">
-        <v>0.002484348167352564</v>
+        <v>0.01164266155297095</v>
       </c>
       <c r="T15">
-        <v>0.002484348167352564</v>
+        <v>0.01164266155297095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H16">
+        <v>487.534973</v>
+      </c>
+      <c r="I16">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J16">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P16">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q16">
+        <v>27.33467750174355</v>
+      </c>
+      <c r="R16">
+        <v>246.012097515692</v>
+      </c>
+      <c r="S16">
+        <v>0.01352820366514923</v>
+      </c>
+      <c r="T16">
+        <v>0.01352820366514923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="H16">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="I16">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="J16">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.0705825375280405</v>
-      </c>
-      <c r="N16">
-        <v>0.0705825375280405</v>
-      </c>
-      <c r="O16">
-        <v>0.02944154042138428</v>
-      </c>
-      <c r="P16">
-        <v>0.02944154042138428</v>
-      </c>
-      <c r="Q16">
-        <v>2.125470990235669</v>
-      </c>
-      <c r="R16">
-        <v>2.125470990235669</v>
-      </c>
-      <c r="S16">
-        <v>0.001417675829795196</v>
-      </c>
-      <c r="T16">
-        <v>0.001417675829795196</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H17">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.556296</v>
+      </c>
+      <c r="O17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q17">
+        <v>82.89405282096712</v>
+      </c>
+      <c r="R17">
+        <v>746.046475388704</v>
+      </c>
+      <c r="S17">
+        <v>0.04102509089855376</v>
+      </c>
+      <c r="T17">
+        <v>0.04102509089855375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H18">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J18">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q18">
+        <v>356.970576418325</v>
+      </c>
+      <c r="R18">
+        <v>3212.735187764925</v>
+      </c>
+      <c r="S18">
+        <v>0.1766682873776282</v>
+      </c>
+      <c r="T18">
+        <v>0.1766682873776282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H19">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J19">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.134921</v>
+      </c>
+      <c r="N19">
+        <v>0.404763</v>
+      </c>
+      <c r="O19">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P19">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q19">
+        <v>21.55916708773467</v>
+      </c>
+      <c r="R19">
+        <v>194.032503789612</v>
+      </c>
+      <c r="S19">
+        <v>0.01066984613940492</v>
+      </c>
+      <c r="T19">
+        <v>0.01066984613940491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H20">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J20">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.434273</v>
+      </c>
+      <c r="O20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q20">
+        <v>23.13097829765023</v>
+      </c>
+      <c r="R20">
+        <v>208.178804678852</v>
+      </c>
+      <c r="S20">
+        <v>0.01144775113460912</v>
+      </c>
+      <c r="T20">
+        <v>0.01144775113460912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H21">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P21">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q21">
+        <v>26.87706620698845</v>
+      </c>
+      <c r="R21">
+        <v>241.8935958628961</v>
+      </c>
+      <c r="S21">
+        <v>0.01330172728566662</v>
+      </c>
+      <c r="T21">
+        <v>0.01330172728566662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H22">
+        <v>101.215736</v>
+      </c>
+      <c r="I22">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J22">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.556296</v>
+      </c>
+      <c r="O22">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P22">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q22">
+        <v>17.50240500820622</v>
+      </c>
+      <c r="R22">
+        <v>157.521645073856</v>
+      </c>
+      <c r="S22">
+        <v>0.008662114252704784</v>
+      </c>
+      <c r="T22">
+        <v>0.008662114252704784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H23">
+        <v>101.215736</v>
+      </c>
+      <c r="I23">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J23">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P23">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q23">
+        <v>75.37143367788178</v>
+      </c>
+      <c r="R23">
+        <v>678.342903100936</v>
+      </c>
+      <c r="S23">
+        <v>0.03730207189251215</v>
+      </c>
+      <c r="T23">
+        <v>0.03730207189251215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H24">
+        <v>101.215736</v>
+      </c>
+      <c r="I24">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J24">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.134921</v>
+      </c>
+      <c r="N24">
+        <v>0.404763</v>
+      </c>
+      <c r="O24">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P24">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q24">
+        <v>4.552042772285332</v>
+      </c>
+      <c r="R24">
+        <v>40.96838495056799</v>
+      </c>
+      <c r="S24">
+        <v>0.00225285122577424</v>
+      </c>
+      <c r="T24">
+        <v>0.00225285122577424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H25">
+        <v>101.215736</v>
+      </c>
+      <c r="I25">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J25">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.434273</v>
+      </c>
+      <c r="O25">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P25">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q25">
+        <v>4.883917924436444</v>
+      </c>
+      <c r="R25">
+        <v>43.955261319928</v>
+      </c>
+      <c r="S25">
+        <v>0.002417099538175813</v>
+      </c>
+      <c r="T25">
+        <v>0.002417099538175813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H26">
+        <v>101.215736</v>
+      </c>
+      <c r="I26">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J26">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P26">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q26">
+        <v>5.674873916504889</v>
+      </c>
+      <c r="R26">
+        <v>51.073865248544</v>
+      </c>
+      <c r="S26">
+        <v>0.002808551522571442</v>
+      </c>
+      <c r="T26">
+        <v>0.002808551522571443</v>
       </c>
     </row>
   </sheetData>
